--- a/Data/EC/NIT-9004459442.xlsx
+++ b/Data/EC/NIT-9004459442.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E383C0F-3B81-475E-81D2-E6038B4E4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D4777D-70C6-4612-8304-F6F9D7675992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC5F2BDF-A9BB-4DB7-B185-04F5DACD8B5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A6F234-A8CF-4C46-BFF3-465C44284D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,193 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8642302</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL LLINAS PATERNINA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>73144708</t>
   </si>
   <si>
     <t>MANUEL ANTONIO BELTRAN BENITEZ</t>
   </si>
   <si>
-    <t>1607</t>
+    <t>64895679</t>
+  </si>
+  <si>
+    <t>LIANA LUCIA MONTES BENITEZ</t>
+  </si>
+  <si>
+    <t>1143356186</t>
+  </si>
+  <si>
+    <t>MERWIN BAYTER CANTILLO</t>
+  </si>
+  <si>
+    <t>9290834</t>
+  </si>
+  <si>
+    <t>JHON ALBERTO TABORDA AGAMES</t>
+  </si>
+  <si>
+    <t>1048277888</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO FAJARDO BLANCO</t>
+  </si>
+  <si>
+    <t>19600796</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE MERCADO AGAMEZ</t>
+  </si>
+  <si>
+    <t>1047432904</t>
+  </si>
+  <si>
+    <t>EMERSON JIMENEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>92521272</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS CARABALLO LEOTTAU</t>
+  </si>
+  <si>
+    <t>1047457221</t>
+  </si>
+  <si>
+    <t>OSCAR JAVIER MORENO HERNANDEZ</t>
   </si>
   <si>
     <t>10509853602</t>
@@ -80,46 +260,10 @@
     <t>HADER ENRIQUE ALCALA BOLAÑO</t>
   </si>
   <si>
-    <t>1048277888</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO FAJARDO BLANCO</t>
-  </si>
-  <si>
-    <t>8642302</t>
-  </si>
-  <si>
-    <t>JESUS RAFAEL LLINAS PATERNINA</t>
-  </si>
-  <si>
-    <t>1047457221</t>
-  </si>
-  <si>
-    <t>OSCAR JAVIER MORENO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
     <t>1047447265</t>
   </si>
   <si>
     <t>ANYELO RAFAEL TORRES MORENO</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>1128862498</t>
@@ -128,97 +272,10 @@
     <t>MIGUEL ANGEL SALDARRIAGA</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>19600796</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE MERCADO AGAMEZ</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1047432904</t>
-  </si>
-  <si>
-    <t>EMERSON JIMENEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
     <t>7384183</t>
   </si>
   <si>
     <t>JORGE LUIS GALARCIO JIMENEZ</t>
-  </si>
-  <si>
-    <t>9290834</t>
-  </si>
-  <si>
-    <t>JHON ALBERTO TABORDA AGAMES</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>9245241</t>
-  </si>
-  <si>
-    <t>ALCIDES ENRIQUE GONZALEZ MOSCOTE</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1143356186</t>
-  </si>
-  <si>
-    <t>MERWIN BAYTER CANTILLO</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
   </si>
   <si>
     <t>1143354809</t>
@@ -227,67 +284,10 @@
     <t>EDGAR MEZA GUERRERO</t>
   </si>
   <si>
-    <t>1809</t>
+    <t>9245241</t>
   </si>
   <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>92521272</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS CARABALLO LEOTTAU</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>64895679</t>
-  </si>
-  <si>
-    <t>LIANA LUCIA MONTES BENITEZ</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>ALCIDES ENRIQUE GONZALEZ MOSCOTE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCEBBDE-175E-602F-B87D-21761FC1648E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C117C8E-1327-3035-D997-260F265A5340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A18621-E42C-4313-96FF-041A2FCFBE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF747DA7-CFF8-42C2-AE5D-6FB89F7F8779}">
   <dimension ref="B2:J389"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1230,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>21874</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1244,16 +1244,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1267,16 +1267,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1290,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1313,16 +1313,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1336,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1359,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1382,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1405,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1437,7 +1437,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1451,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1480,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1497,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1520,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1543,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1566,16 +1566,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1589,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1612,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>24640</v>
@@ -1641,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>24640</v>
@@ -1658,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>24640</v>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>24640</v>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1750,16 +1750,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>24640</v>
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>24640</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>24640</v>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>24640</v>
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -1888,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1911,16 +1911,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1934,16 +1934,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>24640</v>
@@ -2003,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
@@ -2032,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>24640</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2072,16 +2072,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>9836</v>
+        <v>24640</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2095,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>9836</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2118,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>24640</v>
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
@@ -2164,16 +2164,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2210,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F59" s="18">
-        <v>24640</v>
+        <v>21874</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2233,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F60" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2256,16 +2256,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F61" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2279,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F62" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2302,16 +2302,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2325,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F64" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2348,16 +2348,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F65" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2371,16 +2371,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2394,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2417,16 +2417,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F68" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2440,16 +2440,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F69" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2463,16 +2463,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2486,16 +2486,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F71" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2509,16 +2509,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F72" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2532,16 +2532,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2555,16 +2555,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F74" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2578,16 +2578,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F75" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2601,13 +2601,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F76" s="18">
         <v>24640</v>
@@ -2624,16 +2624,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2647,19 +2647,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G78" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2670,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F79" s="18">
         <v>24640</v>
@@ -2693,16 +2693,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2716,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
         <v>24640</v>
@@ -2739,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2762,16 +2762,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2785,10 +2785,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>36</v>
@@ -2808,13 +2808,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F85" s="18">
         <v>24640</v>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2854,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F87" s="18">
         <v>24640</v>
@@ -2877,16 +2877,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2900,13 +2900,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F89" s="18">
         <v>24640</v>
@@ -2923,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F90" s="18">
         <v>24640</v>
@@ -2946,13 +2946,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F91" s="18">
         <v>24640</v>
@@ -2969,16 +2969,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2992,19 +2992,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3015,13 +3015,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F94" s="18">
         <v>24640</v>
@@ -3038,16 +3038,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3061,16 +3061,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F96" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3084,13 +3084,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F97" s="18">
         <v>24640</v>
@@ -3107,13 +3107,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
         <v>24640</v>
@@ -3130,19 +3130,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G99" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3153,13 +3153,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F100" s="18">
         <v>24640</v>
@@ -3176,13 +3176,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F101" s="18">
         <v>24640</v>
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>21874</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3222,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F103" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3245,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F104" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3291,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3314,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F107" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3337,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3360,19 +3360,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>21874</v>
       </c>
       <c r="G109" s="18">
-        <v>689455</v>
+        <v>1600000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3383,19 +3383,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3406,19 +3406,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3429,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3452,19 +3452,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>689455</v>
+        <v>1600000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3475,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3498,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F115" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>1600000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3521,19 +3521,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F116" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3544,19 +3544,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F117" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3567,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3590,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F119" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3613,19 +3613,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3636,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>1600000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3659,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>689455</v>
+        <v>1600000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3682,19 +3682,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3705,19 +3705,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3728,19 +3728,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F125" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3751,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F126" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3774,19 +3774,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F127" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3797,19 +3797,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F128" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>689455</v>
+        <v>1600000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3820,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F129" s="18">
-        <v>24640</v>
+        <v>21874</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3843,19 +3843,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3866,19 +3866,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F131" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3889,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F132" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3912,19 +3912,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F133" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3935,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F134" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>689455</v>
+        <v>1250000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3958,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3981,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F136" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4004,19 +4004,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F137" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4027,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F138" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4050,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F139" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4073,16 +4073,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F140" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
         <v>1250000</v>
@@ -4096,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F141" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4119,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4142,19 +4142,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F143" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4165,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F144" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4188,19 +4188,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F145" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>689455</v>
+        <v>1250000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4211,19 +4211,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F146" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4234,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F147" s="18">
         <v>29509</v>
@@ -4257,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F148" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4280,19 +4280,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F149" s="18">
         <v>29509</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4303,19 +4303,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F150" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4326,19 +4326,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F151" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4349,19 +4349,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F152" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4372,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>1250000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4395,19 +4395,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F154" s="18">
-        <v>27578</v>
+        <v>21874</v>
       </c>
       <c r="G154" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4418,16 +4418,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F155" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4441,16 +4441,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F156" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4464,19 +4464,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F157" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4487,16 +4487,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F158" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4510,16 +4510,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F159" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4533,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F160" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4556,16 +4556,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F161" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4579,19 +4579,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F162" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4602,16 +4602,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F163" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4625,16 +4625,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F164" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4648,19 +4648,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F165" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4671,16 +4671,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F166" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4694,16 +4694,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F167" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4717,13 +4717,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4740,16 +4740,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F169" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4763,19 +4763,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F170" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4786,13 +4786,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F171" s="18">
         <v>24640</v>
@@ -4809,16 +4809,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4832,19 +4832,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F173" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G173" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4855,13 +4855,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F174" s="18">
         <v>24640</v>
@@ -4878,13 +4878,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F175" s="18">
         <v>24640</v>
@@ -4901,16 +4901,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F176" s="18">
-        <v>20833</v>
+        <v>24640</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4924,13 +4924,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F177" s="18">
         <v>24640</v>
@@ -4947,16 +4947,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F178" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -4970,13 +4970,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F179" s="18">
         <v>24640</v>
@@ -4993,13 +4993,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F180" s="18">
         <v>24640</v>
@@ -5016,16 +5016,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G181" s="18">
         <v>781242</v>
@@ -5039,16 +5039,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F182" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5062,16 +5062,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F183" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G183" s="18">
         <v>781242</v>
@@ -5085,19 +5085,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F184" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G184" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5108,13 +5108,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F185" s="18">
         <v>24640</v>
@@ -5131,16 +5131,16 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G186" s="18">
         <v>781242</v>
@@ -5154,13 +5154,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F187" s="18">
         <v>24640</v>
@@ -5177,16 +5177,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G188" s="18">
         <v>781242</v>
@@ -5200,19 +5200,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F189" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G189" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5223,16 +5223,16 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D190" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E190" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G190" s="18">
         <v>781242</v>
@@ -5246,16 +5246,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F191" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G191" s="18">
         <v>781242</v>
@@ -5269,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F192" s="18">
         <v>24640</v>
@@ -5292,16 +5292,16 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G193" s="18">
         <v>781242</v>
@@ -5315,13 +5315,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F194" s="18">
         <v>24640</v>
@@ -5338,16 +5338,16 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G195" s="18">
         <v>781242</v>
@@ -5361,16 +5361,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F196" s="18">
-        <v>27578</v>
+        <v>24640</v>
       </c>
       <c r="G196" s="18">
         <v>781242</v>
@@ -5384,19 +5384,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F197" s="18">
-        <v>24640</v>
+        <v>9836</v>
       </c>
       <c r="G197" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5407,19 +5407,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F198" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G198" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5430,19 +5430,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5453,19 +5453,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5476,19 +5476,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F201" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G201" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5499,19 +5499,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F202" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5522,16 +5522,16 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E203" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D203" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F203" s="18">
-        <v>24640</v>
+        <v>5208</v>
       </c>
       <c r="G203" s="18">
         <v>781242</v>
@@ -5545,16 +5545,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F204" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
         <v>781242</v>
@@ -5568,16 +5568,16 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F205" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
         <v>781242</v>
@@ -5591,19 +5591,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F206" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5614,13 +5614,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5637,16 +5637,16 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F208" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
         <v>781242</v>
@@ -5660,16 +5660,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F209" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
         <v>781242</v>
@@ -5683,13 +5683,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5706,19 +5706,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5729,13 +5729,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5752,16 +5752,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5775,16 +5775,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5798,16 +5798,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5821,16 +5821,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F216" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5844,16 +5844,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -5867,16 +5867,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -5890,16 +5890,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -5913,16 +5913,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F220" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -5936,16 +5936,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F221" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -5959,16 +5959,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -5982,16 +5982,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6005,16 +6005,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6028,16 +6028,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6051,16 +6051,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6074,19 +6074,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F227" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G227" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6097,16 +6097,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F228" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6120,16 +6120,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F229" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6143,16 +6143,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6166,16 +6166,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6189,16 +6189,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F232" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6212,16 +6212,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6235,16 +6235,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F234" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G234" s="18">
         <v>781242</v>
@@ -6258,16 +6258,16 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F235" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G235" s="18">
         <v>781242</v>
@@ -6281,16 +6281,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F236" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G236" s="18">
         <v>781242</v>
@@ -6304,19 +6304,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F237" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G237" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6327,16 +6327,16 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G238" s="18">
         <v>781242</v>
@@ -6350,16 +6350,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G239" s="18">
         <v>781242</v>
@@ -6373,13 +6373,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6396,13 +6396,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6419,13 +6419,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
@@ -6442,13 +6442,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6465,13 +6465,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6488,13 +6488,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6511,13 +6511,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6534,13 +6534,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6557,13 +6557,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6580,13 +6580,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6603,19 +6603,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6626,13 +6626,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6649,19 +6649,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6672,13 +6672,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6695,13 +6695,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6718,13 +6718,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6741,16 +6741,16 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G256" s="18">
         <v>781242</v>
@@ -6764,16 +6764,16 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F257" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G257" s="18">
         <v>781242</v>
@@ -6787,16 +6787,16 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F258" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G258" s="18">
         <v>781242</v>
@@ -6810,16 +6810,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F259" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G259" s="18">
         <v>781242</v>
@@ -6833,16 +6833,16 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F260" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G260" s="18">
         <v>781242</v>
@@ -6856,16 +6856,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F261" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G261" s="18">
         <v>781242</v>
@@ -6879,16 +6879,16 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F262" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G262" s="18">
         <v>781242</v>
@@ -6902,16 +6902,16 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F263" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G263" s="18">
         <v>781242</v>
@@ -6925,16 +6925,16 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F264" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G264" s="18">
         <v>781242</v>
@@ -6948,19 +6948,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F265" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G265" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -6971,16 +6971,16 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F266" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G266" s="18">
         <v>781242</v>
@@ -6994,16 +6994,16 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F267" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G267" s="18">
         <v>781242</v>
@@ -7017,16 +7017,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G268" s="18">
         <v>781242</v>
@@ -7040,16 +7040,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F269" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G269" s="18">
         <v>781242</v>
@@ -7063,16 +7063,16 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F270" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G270" s="18">
         <v>781242</v>
@@ -7086,16 +7086,16 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G271" s="18">
         <v>781242</v>
@@ -7109,16 +7109,16 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F272" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G272" s="18">
         <v>781242</v>
@@ -7132,16 +7132,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F273" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G273" s="18">
         <v>781242</v>
@@ -7155,16 +7155,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7178,16 +7178,16 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F275" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G275" s="18">
         <v>781242</v>
@@ -7201,16 +7201,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F276" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G276" s="18">
         <v>781242</v>
@@ -7224,16 +7224,16 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F277" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G277" s="18">
         <v>781242</v>
@@ -7247,16 +7247,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7270,16 +7270,16 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F279" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G279" s="18">
         <v>781242</v>
@@ -7293,16 +7293,16 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F280" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G280" s="18">
         <v>781242</v>
@@ -7316,19 +7316,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F281" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G281" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7339,19 +7339,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F282" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G282" s="18">
-        <v>1250000</v>
+        <v>689455</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7362,19 +7362,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F283" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G283" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7385,19 +7385,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F284" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G284" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7408,19 +7408,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F285" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G285" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7431,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7454,19 +7454,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F287" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G287" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7477,19 +7477,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F288" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G288" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7500,19 +7500,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F289" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G289" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7523,19 +7523,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F290" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7546,19 +7546,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F291" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G291" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7569,19 +7569,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F292" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G292" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7592,19 +7592,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F293" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G293" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7615,19 +7615,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G294" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7638,19 +7638,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F295" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G295" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7661,19 +7661,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F296" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G296" s="18">
-        <v>1250000</v>
+        <v>689455</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7684,19 +7684,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F297" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7707,19 +7707,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F298" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G298" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7730,16 +7730,16 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F299" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G299" s="18">
         <v>781242</v>
@@ -7753,19 +7753,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F300" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G300" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7776,13 +7776,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7799,13 +7799,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7822,13 +7822,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7845,13 +7845,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E304" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -7868,13 +7868,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -7891,19 +7891,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F306" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -7914,19 +7914,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
       </c>
       <c r="G307" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -7937,16 +7937,16 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F308" s="18">
-        <v>5208</v>
+        <v>31249</v>
       </c>
       <c r="G308" s="18">
         <v>781242</v>
@@ -7960,13 +7960,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
@@ -7983,13 +7983,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8006,13 +8006,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8029,13 +8029,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8052,13 +8052,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8075,13 +8075,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8098,13 +8098,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8121,16 +8121,16 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F316" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G316" s="18">
         <v>781242</v>
@@ -8144,16 +8144,16 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G317" s="18">
         <v>781242</v>
@@ -8167,19 +8167,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F318" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G318" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8190,16 +8190,16 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F319" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G319" s="18">
         <v>781242</v>
@@ -8213,16 +8213,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F320" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G320" s="18">
         <v>781242</v>
@@ -8242,13 +8242,13 @@
         <v>77</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F321" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G321" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8259,16 +8259,16 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F322" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G322" s="18">
         <v>781242</v>
@@ -8282,16 +8282,16 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F323" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G323" s="18">
         <v>781242</v>
@@ -8305,16 +8305,16 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F324" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G324" s="18">
         <v>781242</v>
@@ -8328,19 +8328,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F325" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G325" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8351,16 +8351,16 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F326" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G326" s="18">
         <v>781242</v>
@@ -8374,16 +8374,16 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F327" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G327" s="18">
         <v>781242</v>
@@ -8397,16 +8397,16 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F328" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G328" s="18">
         <v>781242</v>
@@ -8420,16 +8420,16 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F329" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G329" s="18">
         <v>781242</v>
@@ -8449,13 +8449,13 @@
         <v>77</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F330" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G330" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8466,16 +8466,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F331" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8489,16 +8489,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F332" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8512,16 +8512,16 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F333" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G333" s="18">
         <v>781242</v>
@@ -8535,16 +8535,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F334" s="18">
-        <v>31249</v>
+        <v>9836</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8558,13 +8558,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F335" s="18">
         <v>31249</v>
@@ -8581,13 +8581,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F336" s="18">
         <v>31249</v>
@@ -8604,19 +8604,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F337" s="18">
         <v>31249</v>
       </c>
       <c r="G337" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8627,13 +8627,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D338" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E338" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F338" s="18">
         <v>31249</v>
@@ -8650,19 +8650,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F339" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8673,13 +8673,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F340" s="18">
         <v>31249</v>
@@ -8696,13 +8696,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F341" s="18">
         <v>31249</v>
@@ -8719,13 +8719,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F342" s="18">
         <v>31249</v>
@@ -8742,13 +8742,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F343" s="18">
         <v>31249</v>
@@ -8765,19 +8765,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F344" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8788,16 +8788,16 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F345" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G345" s="18">
         <v>781242</v>
@@ -8811,13 +8811,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F346" s="18">
         <v>31249</v>
@@ -8834,13 +8834,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F347" s="18">
         <v>31249</v>
@@ -8857,13 +8857,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F348" s="18">
         <v>31249</v>
@@ -8880,13 +8880,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F349" s="18">
         <v>31249</v>
@@ -8903,13 +8903,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F350" s="18">
         <v>31249</v>
@@ -8926,13 +8926,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F351" s="18">
         <v>31249</v>
@@ -8949,19 +8949,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F352" s="18">
         <v>31249</v>
       </c>
       <c r="G352" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -8972,13 +8972,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="F353" s="18">
         <v>31249</v>
@@ -8995,13 +8995,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F354" s="18">
         <v>31249</v>
@@ -9018,13 +9018,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F355" s="18">
         <v>31249</v>
@@ -9041,13 +9041,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F356" s="18">
         <v>31249</v>
@@ -9064,13 +9064,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="F357" s="18">
         <v>31249</v>
@@ -9087,19 +9087,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F358" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G358" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9110,19 +9110,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F359" s="18">
         <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9133,13 +9133,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F360" s="18">
         <v>31249</v>
@@ -9156,13 +9156,13 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F361" s="18">
         <v>31249</v>
@@ -9179,13 +9179,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F362" s="18">
         <v>31249</v>
@@ -9202,16 +9202,16 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F363" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G363" s="18">
         <v>781242</v>
@@ -9225,13 +9225,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F364" s="18">
         <v>31249</v>
@@ -9248,13 +9248,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="F365" s="18">
         <v>31249</v>
@@ -9271,19 +9271,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F366" s="18">
         <v>31249</v>
       </c>
       <c r="G366" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9294,19 +9294,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F367" s="18">
         <v>31249</v>
       </c>
       <c r="G367" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9317,13 +9317,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="F368" s="18">
         <v>31249</v>
@@ -9340,13 +9340,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F369" s="18">
         <v>31249</v>
@@ -9363,13 +9363,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F370" s="18">
         <v>31249</v>
@@ -9386,13 +9386,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F371" s="18">
         <v>31249</v>
@@ -9409,13 +9409,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F372" s="18">
         <v>31249</v>
@@ -9432,13 +9432,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F373" s="18">
         <v>31249</v>
@@ -9455,16 +9455,16 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F374" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G374" s="18">
         <v>781242</v>
@@ -9478,16 +9478,16 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F375" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G375" s="18">
         <v>781242</v>
@@ -9501,16 +9501,16 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="F376" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G376" s="18">
         <v>781242</v>
@@ -9524,16 +9524,16 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F377" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G377" s="18">
         <v>781242</v>
@@ -9547,19 +9547,19 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F378" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G378" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H378" s="19"/>
       <c r="I378" s="19"/>
@@ -9570,16 +9570,16 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F379" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G379" s="18">
         <v>781242</v>
@@ -9593,16 +9593,16 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F380" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G380" s="18">
         <v>781242</v>
@@ -9616,19 +9616,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F381" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G381" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9639,16 +9639,16 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F382" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G382" s="18">
         <v>781242</v>
@@ -9662,16 +9662,16 @@
         <v>8</v>
       </c>
       <c r="C383" s="22" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F383" s="24">
-        <v>21874</v>
+        <v>20833</v>
       </c>
       <c r="G383" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9004459442.xlsx
+++ b/Data/EC/NIT-9004459442.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D4777D-70C6-4612-8304-F6F9D7675992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9B19EC-7F60-4E42-BB0B-56C440C0E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07A6F234-A8CF-4C46-BFF3-465C44284D62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A46B1AA-7AB9-43DE-97F4-7931DCB30CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,132 +71,6 @@
     <t>JESUS RAFAEL LLINAS PATERNINA</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
     <t>1607</t>
   </si>
   <si>
@@ -206,46 +80,10 @@
     <t>MANUEL ANTONIO BELTRAN BENITEZ</t>
   </si>
   <si>
-    <t>64895679</t>
-  </si>
-  <si>
-    <t>LIANA LUCIA MONTES BENITEZ</t>
-  </si>
-  <si>
-    <t>1143356186</t>
-  </si>
-  <si>
-    <t>MERWIN BAYTER CANTILLO</t>
-  </si>
-  <si>
-    <t>9290834</t>
-  </si>
-  <si>
-    <t>JHON ALBERTO TABORDA AGAMES</t>
-  </si>
-  <si>
     <t>1048277888</t>
   </si>
   <si>
     <t>LUIS EDUARDO FAJARDO BLANCO</t>
-  </si>
-  <si>
-    <t>19600796</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE MERCADO AGAMEZ</t>
-  </si>
-  <si>
-    <t>1047432904</t>
-  </si>
-  <si>
-    <t>EMERSON JIMENEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>92521272</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS CARABALLO LEOTTAU</t>
   </si>
   <si>
     <t>1047457221</t>
@@ -260,10 +98,37 @@
     <t>HADER ENRIQUE ALCALA BOLAÑO</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1047447265</t>
   </si>
   <si>
     <t>ANYELO RAFAEL TORRES MORENO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>19600796</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE MERCADO AGAMEZ</t>
   </si>
   <si>
     <t>1128862498</t>
@@ -272,10 +137,88 @@
     <t>MIGUEL ANGEL SALDARRIAGA</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1047432904</t>
+  </si>
+  <si>
+    <t>EMERSON JIMENEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>9290834</t>
+  </si>
+  <si>
+    <t>JHON ALBERTO TABORDA AGAMES</t>
+  </si>
+  <si>
     <t>7384183</t>
   </si>
   <si>
     <t>JORGE LUIS GALARCIO JIMENEZ</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>9245241</t>
+  </si>
+  <si>
+    <t>ALCIDES ENRIQUE GONZALEZ MOSCOTE</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1143356186</t>
+  </si>
+  <si>
+    <t>MERWIN BAYTER CANTILLO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
   </si>
   <si>
     <t>1143354809</t>
@@ -284,10 +227,67 @@
     <t>EDGAR MEZA GUERRERO</t>
   </si>
   <si>
-    <t>9245241</t>
+    <t>1809</t>
   </si>
   <si>
-    <t>ALCIDES ENRIQUE GONZALEZ MOSCOTE</t>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>92521272</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS CARABALLO LEOTTAU</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>64895679</t>
+  </si>
+  <si>
+    <t>LIANA LUCIA MONTES BENITEZ</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -386,7 +386,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -399,9 +401,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -601,23 +601,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,10 +645,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C117C8E-1327-3035-D997-260F265A5340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7276625-5554-AE9E-A8FF-3E7A684C9F41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF747DA7-CFF8-42C2-AE5D-6FB89F7F8779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FAC1E7-4229-42AB-BE2A-022C66D23D3F}">
   <dimension ref="B2:J389"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1230,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1244,16 +1244,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1267,16 +1267,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1290,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1313,16 +1313,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1342,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1359,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1382,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1405,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1428,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1460,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1474,16 +1474,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1497,16 +1497,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1520,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1543,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1572,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1589,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1612,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>24640</v>
@@ -1635,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>24640</v>
@@ -1658,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1687,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>24640</v>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>24640</v>
@@ -1727,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>24640</v>
@@ -1773,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>24640</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>24640</v>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>24640</v>
@@ -1865,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -1888,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1940,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
         <v>24640</v>
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
         <v>24640</v>
@@ -2003,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
@@ -2026,16 +2026,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2078,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
         <v>24640</v>
@@ -2095,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
         <v>24640</v>
@@ -2118,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>24640</v>
@@ -2141,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>24640</v>
+        <v>9836</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2164,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
         <v>24640</v>
@@ -2187,16 +2187,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F58" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2210,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F59" s="18">
-        <v>21874</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2233,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>9836</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2256,16 +2256,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2279,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2302,16 +2302,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2325,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2348,16 +2348,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2371,16 +2371,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2394,16 +2394,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2417,16 +2417,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2440,16 +2440,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2463,16 +2463,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2486,16 +2486,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2509,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2532,16 +2532,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2555,16 +2555,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2578,16 +2578,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2601,13 +2601,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
         <v>24640</v>
@@ -2624,13 +2624,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>24640</v>
@@ -2647,16 +2647,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2670,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F79" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2693,16 +2693,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F80" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2716,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
         <v>24640</v>
@@ -2739,13 +2739,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F82" s="18">
         <v>24640</v>
@@ -2762,13 +2762,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83" s="18">
         <v>24640</v>
@@ -2785,10 +2785,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>36</v>
@@ -2808,16 +2808,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F86" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2854,16 +2854,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F87" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2877,13 +2877,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F88" s="18">
         <v>24640</v>
@@ -2900,13 +2900,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F89" s="18">
         <v>24640</v>
@@ -2923,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F90" s="18">
         <v>24640</v>
@@ -2946,13 +2946,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F91" s="18">
         <v>24640</v>
@@ -2969,16 +2969,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F92" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2992,19 +2992,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3015,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F94" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3038,13 +3038,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F95" s="18">
         <v>24640</v>
@@ -3061,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F96" s="18">
         <v>24640</v>
@@ -3084,13 +3084,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F97" s="18">
         <v>24640</v>
@@ -3107,13 +3107,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F98" s="18">
         <v>24640</v>
@@ -3130,16 +3130,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3153,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3176,16 +3176,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3199,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F102" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G102" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3222,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G103" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3245,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3268,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G105" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3291,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F106" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G106" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3314,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F107" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3337,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F108" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
-        <v>828116</v>
+        <v>689455</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3360,19 +3360,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F109" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3383,19 +3383,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G110" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3406,19 +3406,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G111" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3429,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G112" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3452,19 +3452,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G113" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3475,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G114" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3498,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G115" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3521,19 +3521,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
-        <v>1600000</v>
+        <v>689455</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3544,19 +3544,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G117" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3567,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G118" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3590,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G119" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3613,19 +3613,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G120" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3636,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G121" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3659,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G122" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3682,19 +3682,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G123" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3705,19 +3705,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G124" s="18">
-        <v>1600000</v>
+        <v>689455</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3728,19 +3728,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G125" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3751,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G126" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3774,19 +3774,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G127" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3797,19 +3797,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G128" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3820,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F129" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G129" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3843,19 +3843,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G130" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3866,19 +3866,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G131" s="18">
-        <v>1250000</v>
+        <v>689455</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3889,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G132" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3912,19 +3912,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G133" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3935,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G134" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3958,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G135" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3981,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G136" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4004,19 +4004,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G137" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4027,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G138" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4050,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G139" s="18">
-        <v>1250000</v>
+        <v>689455</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4073,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G140" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4096,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4119,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G142" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4142,19 +4142,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G143" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4165,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G144" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4188,19 +4188,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G145" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4211,19 +4211,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F146" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G146" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4234,19 +4234,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F147" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G147" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4257,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F148" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G148" s="18">
-        <v>1250000</v>
+        <v>689455</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4280,19 +4280,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F149" s="18">
         <v>29509</v>
       </c>
       <c r="G149" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4303,19 +4303,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F150" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4326,19 +4326,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F151" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G151" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4349,19 +4349,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F152" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G152" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4372,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F153" s="18">
         <v>29509</v>
       </c>
       <c r="G153" s="18">
-        <v>1250000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4395,16 +4395,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F154" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4418,16 +4418,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4441,16 +4441,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4464,19 +4464,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4487,16 +4487,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4510,13 +4510,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4533,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4556,16 +4556,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4579,16 +4579,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4602,16 +4602,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4625,16 +4625,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4648,16 +4648,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4671,19 +4671,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4694,16 +4694,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4717,13 +4717,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4740,16 +4740,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4763,16 +4763,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4786,16 +4786,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F171" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4809,13 +4809,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F172" s="18">
         <v>24640</v>
@@ -4832,13 +4832,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F173" s="18">
         <v>24640</v>
@@ -4855,16 +4855,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F174" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4878,19 +4878,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F175" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4901,16 +4901,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F176" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4924,16 +4924,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F177" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -4947,16 +4947,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F178" s="18">
-        <v>24640</v>
+        <v>20833</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -4970,13 +4970,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F179" s="18">
         <v>24640</v>
@@ -4993,13 +4993,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F180" s="18">
         <v>24640</v>
@@ -5016,16 +5016,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F181" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
         <v>781242</v>
@@ -5039,16 +5039,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F182" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5062,13 +5062,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F183" s="18">
         <v>24640</v>
@@ -5085,13 +5085,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F184" s="18">
         <v>24640</v>
@@ -5108,16 +5108,16 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F185" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G185" s="18">
         <v>781242</v>
@@ -5131,16 +5131,16 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F186" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G186" s="18">
         <v>781242</v>
@@ -5154,16 +5154,16 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F187" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
         <v>781242</v>
@@ -5177,16 +5177,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F188" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
         <v>781242</v>
@@ -5200,13 +5200,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F189" s="18">
         <v>24640</v>
@@ -5223,13 +5223,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F190" s="18">
         <v>24640</v>
@@ -5246,16 +5246,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F191" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
         <v>781242</v>
@@ -5269,16 +5269,16 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F192" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G192" s="18">
         <v>781242</v>
@@ -5292,13 +5292,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F193" s="18">
         <v>24640</v>
@@ -5315,13 +5315,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F194" s="18">
         <v>24640</v>
@@ -5338,16 +5338,16 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F195" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G195" s="18">
         <v>781242</v>
@@ -5361,16 +5361,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F196" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G196" s="18">
         <v>781242</v>
@@ -5384,19 +5384,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F197" s="18">
-        <v>9836</v>
+        <v>31249</v>
       </c>
       <c r="G197" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5407,19 +5407,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F198" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5430,19 +5430,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F199" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G199" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5453,19 +5453,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F200" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G200" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5476,19 +5476,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F201" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5499,19 +5499,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F202" s="18">
-        <v>33125</v>
+        <v>29509</v>
       </c>
       <c r="G202" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5522,16 +5522,16 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F203" s="18">
-        <v>5208</v>
+        <v>24640</v>
       </c>
       <c r="G203" s="18">
         <v>781242</v>
@@ -5545,16 +5545,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F204" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G204" s="18">
         <v>781242</v>
@@ -5568,16 +5568,16 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G205" s="18">
         <v>781242</v>
@@ -5591,16 +5591,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G206" s="18">
         <v>781242</v>
@@ -5614,13 +5614,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5637,13 +5637,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5660,13 +5660,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5683,13 +5683,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5706,13 +5706,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5729,13 +5729,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5752,16 +5752,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F213" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5775,16 +5775,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F214" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5798,16 +5798,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F215" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5821,16 +5821,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F216" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5844,16 +5844,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F217" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -5867,16 +5867,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F218" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -5890,16 +5890,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F219" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -5913,16 +5913,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F220" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -5936,16 +5936,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F221" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -5959,16 +5959,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F222" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -5982,16 +5982,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F223" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6005,16 +6005,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F224" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6028,16 +6028,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F225" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6051,16 +6051,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F226" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6074,16 +6074,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F227" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
         <v>781242</v>
@@ -6097,16 +6097,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F228" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6120,16 +6120,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F229" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6143,16 +6143,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F230" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6166,16 +6166,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F231" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6189,16 +6189,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F232" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6212,16 +6212,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F233" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6235,16 +6235,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F234" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
         <v>781242</v>
@@ -6258,16 +6258,16 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F235" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
         <v>781242</v>
@@ -6281,16 +6281,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F236" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
         <v>781242</v>
@@ -6304,16 +6304,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F237" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
         <v>781242</v>
@@ -6327,16 +6327,16 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F238" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
         <v>781242</v>
@@ -6350,16 +6350,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F239" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
         <v>781242</v>
@@ -6373,13 +6373,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6396,13 +6396,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6419,13 +6419,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
@@ -6442,13 +6442,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6465,13 +6465,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6488,13 +6488,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6511,13 +6511,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6534,13 +6534,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6557,13 +6557,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6580,13 +6580,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6603,13 +6603,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6626,13 +6626,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6649,13 +6649,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6672,13 +6672,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6695,13 +6695,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6718,13 +6718,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6741,16 +6741,16 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F256" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
         <v>781242</v>
@@ -6764,16 +6764,16 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F257" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
         <v>781242</v>
@@ -6787,16 +6787,16 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F258" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
         <v>781242</v>
@@ -6810,16 +6810,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F259" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
         <v>781242</v>
@@ -6833,16 +6833,16 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F260" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G260" s="18">
         <v>781242</v>
@@ -6856,16 +6856,16 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F261" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
         <v>781242</v>
@@ -6879,16 +6879,16 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F262" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
         <v>781242</v>
@@ -6902,16 +6902,16 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F263" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G263" s="18">
         <v>781242</v>
@@ -6925,16 +6925,16 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F264" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G264" s="18">
         <v>781242</v>
@@ -6948,16 +6948,16 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F265" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
         <v>781242</v>
@@ -6971,16 +6971,16 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F266" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
         <v>781242</v>
@@ -6994,16 +6994,16 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F267" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G267" s="18">
         <v>781242</v>
@@ -7017,16 +7017,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F268" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
         <v>781242</v>
@@ -7040,16 +7040,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F269" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
         <v>781242</v>
@@ -7063,16 +7063,16 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F270" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G270" s="18">
         <v>781242</v>
@@ -7086,16 +7086,16 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F271" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
         <v>781242</v>
@@ -7109,16 +7109,16 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F272" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G272" s="18">
         <v>781242</v>
@@ -7132,16 +7132,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F273" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G273" s="18">
         <v>781242</v>
@@ -7155,16 +7155,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F274" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7178,16 +7178,16 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F275" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G275" s="18">
         <v>781242</v>
@@ -7201,16 +7201,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F276" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
         <v>781242</v>
@@ -7224,16 +7224,16 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F277" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
         <v>781242</v>
@@ -7247,16 +7247,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F278" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7270,16 +7270,16 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F279" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G279" s="18">
         <v>781242</v>
@@ -7293,16 +7293,16 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F280" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G280" s="18">
         <v>781242</v>
@@ -7316,16 +7316,16 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F281" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
         <v>781242</v>
@@ -7339,19 +7339,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F282" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G282" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7362,19 +7362,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F283" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G283" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7385,19 +7385,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F284" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G284" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7408,19 +7408,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F285" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G285" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7431,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F286" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7454,19 +7454,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F287" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G287" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7477,19 +7477,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F288" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G288" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7500,19 +7500,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F289" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7523,19 +7523,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F290" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G290" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7546,19 +7546,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F291" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G291" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7569,19 +7569,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F292" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G292" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7592,19 +7592,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F293" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G293" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7615,19 +7615,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F294" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G294" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7638,19 +7638,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F295" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G295" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7661,19 +7661,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F296" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7684,19 +7684,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F297" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G297" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7707,19 +7707,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F298" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7730,16 +7730,16 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F299" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
         <v>781242</v>
@@ -7753,13 +7753,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7776,13 +7776,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7799,13 +7799,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7822,13 +7822,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7845,13 +7845,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -7868,13 +7868,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -7891,13 +7891,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -7914,13 +7914,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -7937,19 +7937,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F308" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G308" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -7960,16 +7960,16 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F309" s="18">
-        <v>31249</v>
+        <v>5208</v>
       </c>
       <c r="G309" s="18">
         <v>781242</v>
@@ -7983,13 +7983,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8006,13 +8006,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8029,13 +8029,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8052,13 +8052,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8075,13 +8075,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8098,13 +8098,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8127,10 +8127,10 @@
         <v>77</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F316" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G316" s="18">
         <v>781242</v>
@@ -8144,16 +8144,16 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F317" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G317" s="18">
         <v>781242</v>
@@ -8167,16 +8167,16 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F318" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G318" s="18">
         <v>781242</v>
@@ -8190,16 +8190,16 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F319" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
         <v>781242</v>
@@ -8213,16 +8213,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F320" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G320" s="18">
         <v>781242</v>
@@ -8236,16 +8236,16 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F321" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
         <v>781242</v>
@@ -8259,16 +8259,16 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F322" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G322" s="18">
         <v>781242</v>
@@ -8282,16 +8282,16 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F323" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G323" s="18">
         <v>781242</v>
@@ -8305,16 +8305,16 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F324" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G324" s="18">
         <v>781242</v>
@@ -8328,16 +8328,16 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F325" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G325" s="18">
         <v>781242</v>
@@ -8357,10 +8357,10 @@
         <v>77</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F326" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G326" s="18">
         <v>781242</v>
@@ -8374,16 +8374,16 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F327" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G327" s="18">
         <v>781242</v>
@@ -8397,16 +8397,16 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F328" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G328" s="18">
         <v>781242</v>
@@ -8420,16 +8420,16 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F329" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
         <v>781242</v>
@@ -8443,16 +8443,16 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F330" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G330" s="18">
         <v>781242</v>
@@ -8466,16 +8466,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F331" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8489,16 +8489,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F332" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8512,16 +8512,16 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F333" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
         <v>781242</v>
@@ -8535,16 +8535,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F334" s="18">
-        <v>9836</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8558,13 +8558,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D335" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F335" s="18">
         <v>31249</v>
@@ -8581,16 +8581,16 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D336" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E336" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E336" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F336" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G336" s="18">
         <v>781242</v>
@@ -8604,13 +8604,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D337" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E337" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F337" s="18">
         <v>31249</v>
@@ -8627,13 +8627,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D338" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E338" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F338" s="18">
         <v>31249</v>
@@ -8650,13 +8650,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D339" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F339" s="18">
         <v>31249</v>
@@ -8673,13 +8673,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D340" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F340" s="18">
         <v>31249</v>
@@ -8696,13 +8696,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D341" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E341" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E341" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F341" s="18">
         <v>31249</v>
@@ -8719,13 +8719,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D342" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E342" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E342" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F342" s="18">
         <v>31249</v>
@@ -8742,13 +8742,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D343" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E343" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F343" s="18">
         <v>31249</v>
@@ -8765,13 +8765,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F344" s="18">
         <v>31249</v>
@@ -8788,16 +8788,16 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D345" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E345" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F345" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G345" s="18">
         <v>781242</v>
@@ -8811,16 +8811,16 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E346" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D346" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F346" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G346" s="18">
         <v>781242</v>
@@ -8834,13 +8834,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E347" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D347" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F347" s="18">
         <v>31249</v>
@@ -8857,13 +8857,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E348" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D348" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E348" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F348" s="18">
         <v>31249</v>
@@ -8880,13 +8880,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D349" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F349" s="18">
         <v>31249</v>
@@ -8903,13 +8903,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D350" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E350" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D350" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E350" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F350" s="18">
         <v>31249</v>
@@ -8926,13 +8926,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E351" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D351" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F351" s="18">
         <v>31249</v>
@@ -8949,13 +8949,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E352" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D352" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F352" s="18">
         <v>31249</v>
@@ -8972,13 +8972,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E353" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D353" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F353" s="18">
         <v>31249</v>
@@ -8995,13 +8995,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D354" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E354" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E354" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F354" s="18">
         <v>31249</v>
@@ -9018,13 +9018,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D355" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E355" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F355" s="18">
         <v>31249</v>
@@ -9041,16 +9041,16 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D356" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E356" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E356" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F356" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G356" s="18">
         <v>781242</v>
@@ -9064,13 +9064,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D357" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E357" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F357" s="18">
         <v>31249</v>
@@ -9087,13 +9087,13 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D358" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E358" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F358" s="18">
         <v>31249</v>
@@ -9110,13 +9110,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D359" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F359" s="18">
         <v>31249</v>
@@ -9133,13 +9133,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D360" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F360" s="18">
         <v>31249</v>
@@ -9156,13 +9156,13 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D361" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E361" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F361" s="18">
         <v>31249</v>
@@ -9179,13 +9179,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D362" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E362" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F362" s="18">
         <v>31249</v>
@@ -9202,16 +9202,16 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F363" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G363" s="18">
         <v>781242</v>
@@ -9225,13 +9225,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D364" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E364" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F364" s="18">
         <v>31249</v>
@@ -9248,13 +9248,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D365" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E365" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F365" s="18">
         <v>31249</v>
@@ -9271,13 +9271,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D366" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E366" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D366" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E366" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F366" s="18">
         <v>31249</v>
@@ -9294,13 +9294,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E367" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D367" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F367" s="18">
         <v>31249</v>
@@ -9317,13 +9317,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E368" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F368" s="18">
         <v>31249</v>
@@ -9340,13 +9340,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E369" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D369" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F369" s="18">
         <v>31249</v>
@@ -9363,13 +9363,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F370" s="18">
         <v>31249</v>
@@ -9386,13 +9386,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E371" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E371" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F371" s="18">
         <v>31249</v>
@@ -9409,13 +9409,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E372" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D372" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E372" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F372" s="18">
         <v>31249</v>
@@ -9432,13 +9432,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E373" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D373" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F373" s="18">
         <v>31249</v>
@@ -9455,16 +9455,16 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D374" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E374" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E374" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F374" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G374" s="18">
         <v>781242</v>
@@ -9478,16 +9478,16 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D375" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E375" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E375" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F375" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G375" s="18">
         <v>781242</v>
@@ -9501,16 +9501,16 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D376" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E376" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E376" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F376" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G376" s="18">
         <v>781242</v>
@@ -9524,16 +9524,16 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D377" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E377" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F377" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G377" s="18">
         <v>781242</v>
@@ -9547,16 +9547,16 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D378" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E378" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E378" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F378" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G378" s="18">
         <v>781242</v>
@@ -9570,16 +9570,16 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D379" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E379" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F379" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G379" s="18">
         <v>781242</v>
@@ -9593,16 +9593,16 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D380" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E380" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E380" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F380" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G380" s="18">
         <v>781242</v>
@@ -9616,16 +9616,16 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D381" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E381" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E381" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F381" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G381" s="18">
         <v>781242</v>
@@ -9639,16 +9639,16 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D382" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E382" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E382" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F382" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G382" s="18">
         <v>781242</v>
@@ -9662,16 +9662,16 @@
         <v>8</v>
       </c>
       <c r="C383" s="22" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D383" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E383" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E383" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="F383" s="24">
-        <v>20833</v>
+        <v>21874</v>
       </c>
       <c r="G383" s="24">
         <v>781242</v>
